--- a/PCAcombined_predicted_variables_matrix_7.xlsx
+++ b/PCAcombined_predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.5358011707988224</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5358130913243994</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5358154494940827</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5358219387331256</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5358258866259477</v>
+        <v>0.5358309800874753</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.5360863012890753</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5361151328009213</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5361203419645759</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5361192141575057</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5361176323435831</v>
+        <v>0.5361183016071827</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.536104441521551</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5361402155855188</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5361309733297756</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5361245868772625</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5361201690082402</v>
+        <v>0.536127968852636</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5358881028645961</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5359372734123377</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5359365618797668</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359354148473038</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.535934184452016</v>
+        <v>0.5359361810683799</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>0.5361002213011502</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5360707192212489</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5360911813590067</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5360946346839918</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5360953005941588</v>
+        <v>0.5360849866978173</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.5357210090713689</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5357184150175419</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5357227268114666</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5357276655826955</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5357300604438041</v>
+        <v>0.5357690084678649</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.5359555436086434</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5359429372957435</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5359236027448059</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5359107943920099</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5359025770943497</v>
+        <v>0.5359378973443195</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.5357723685095425</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5357844506448501</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5357782746596452</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5357752866883748</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5357728634503196</v>
+        <v>0.5358196287614618</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.5362031216884816</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5362128107294952</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.536208590257215</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5362050541612093</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5362026496530078</v>
+        <v>0.53625299168325</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>0.535824718309885</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5358589748835166</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.535860692428815</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5358601182345821</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5358588365790166</v>
+        <v>0.5358792435606261</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.5358536470212202</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5359221778993049</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5359254652583972</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5359213942018068</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.535917762900349</v>
+        <v>0.5359199471971503</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.535938924002861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5359483231545833</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5359489091921549</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5359442910977535</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5359406385572192</v>
+        <v>0.5359818413379307</v>
       </c>
     </row>
     <row r="14">
@@ -659,16 +542,7 @@
         <v>0.5359004053706241</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5359893304398626</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5359976241721311</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5359937262933697</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5359899163516791</v>
+        <v>0.5359992322208705</v>
       </c>
     </row>
     <row r="15">
@@ -676,16 +550,7 @@
         <v>0.5357953135616876</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5358822753990387</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5358829287029431</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.535878939197859</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5358761599632441</v>
+        <v>0.5359175224910887</v>
       </c>
     </row>
     <row r="16">
@@ -693,16 +558,7 @@
         <v>0.5360756298526228</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5361569762439944</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5361464594171573</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5361365018003125</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5361301639582187</v>
+        <v>0.536175748443963</v>
       </c>
     </row>
     <row r="17">
@@ -710,16 +566,7 @@
         <v>0.5361036448252183</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5361743092645034</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.536189609130549</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5361941544479841</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5361963443138404</v>
+        <v>0.5361931554051309</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +574,7 @@
         <v>0.5357781126543805</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5358404627943741</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5358509860804184</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5358513987818013</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5358511590479061</v>
+        <v>0.5358747896476953</v>
       </c>
     </row>
     <row r="19">
@@ -744,16 +582,7 @@
         <v>0.5360200526354338</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5360963043899357</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5361221166396147</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5361259615125172</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.536126236418529</v>
+        <v>0.536158581702912</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +590,7 @@
         <v>0.5360791738702753</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5361091000868016</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5360917935743713</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5360800268486025</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5360730635754656</v>
+        <v>0.5361051462802822</v>
       </c>
     </row>
     <row r="21">
@@ -778,16 +598,7 @@
         <v>0.5362162585653998</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5362827748131415</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5362723276909706</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5362625693580578</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5362564634905185</v>
+        <v>0.5362801636567606</v>
       </c>
     </row>
     <row r="22">
@@ -795,16 +606,7 @@
         <v>0.5360649743950683</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5361051241710727</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5361156549454121</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5361135746497082</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5361112344448347</v>
+        <v>0.5361157707008984</v>
       </c>
     </row>
     <row r="23">
@@ -812,16 +614,7 @@
         <v>0.5358024470431328</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5358633285255383</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5358689220544192</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5358638163345608</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5358597671854901</v>
+        <v>0.5358567821357441</v>
       </c>
     </row>
     <row r="24">
@@ -829,16 +622,7 @@
         <v>0.5358586804587294</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5369503456614724</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5368069347558408</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5367581206438178</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5367432623078668</v>
+        <v>0.5363654901367106</v>
       </c>
     </row>
     <row r="25">
@@ -846,16 +630,7 @@
         <v>0.5362539610302306</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5361808450517417</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5361732139310302</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5361743308932809</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5361779254230236</v>
+        <v>0.5361869477188127</v>
       </c>
     </row>
     <row r="26">
@@ -863,16 +638,7 @@
         <v>0.5359925672504011</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5360852493577464</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5360841235214737</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5360765858134008</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5360737741267666</v>
+        <v>0.5359929578308356</v>
       </c>
     </row>
     <row r="27">
@@ -880,16 +646,7 @@
         <v>0.5360552927287326</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5359593395644471</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5359718567354517</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5359862296106589</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5359980932954934</v>
+        <v>0.5359793618272163</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +654,7 @@
         <v>0.5363676615316088</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5364643444081413</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5364470073734686</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5364563050361091</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5364673968509897</v>
+        <v>0.5364019140644952</v>
       </c>
     </row>
     <row r="29">
@@ -914,16 +662,7 @@
         <v>0.5359103286820799</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5365759218856905</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5366868619326605</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5367596572881307</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5368099630820216</v>
+        <v>0.5366806612551323</v>
       </c>
     </row>
     <row r="30">
@@ -931,16 +670,7 @@
         <v>0.5362916525930668</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5362964181842352</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5363106985003147</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5363314396537791</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5363480082096356</v>
+        <v>0.5363326497098505</v>
       </c>
     </row>
     <row r="31">
@@ -948,16 +678,7 @@
         <v>0.5358117762145059</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5356556479012574</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5356976034288968</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5357150493660744</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5357262125729527</v>
+        <v>0.5357328831444621</v>
       </c>
     </row>
     <row r="32">
@@ -965,16 +686,7 @@
         <v>0.5363531177056854</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5362680437088303</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5362783913939525</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5362928988478662</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5363042292595861</v>
+        <v>0.5363316088017023</v>
       </c>
     </row>
     <row r="33">
@@ -982,16 +694,7 @@
         <v>0.5364291790031687</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5363882005603511</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5364009026337337</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5364110786626107</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5364187066713912</v>
+        <v>0.5364633671813059</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +702,7 @@
         <v>0.5355313274235656</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5354927061996756</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5354707479669992</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.53547264879378</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5354773029978351</v>
+        <v>0.5355022354284822</v>
       </c>
     </row>
     <row r="35">
@@ -1016,16 +710,7 @@
         <v>0.5364552830805687</v>
       </c>
       <c r="B35" t="n">
-        <v>0.536469482427206</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.536468001634635</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5364682195259061</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5364685699645857</v>
+        <v>0.5364747039673269</v>
       </c>
     </row>
     <row r="36">
@@ -1033,16 +718,7 @@
         <v>0.5364739000289003</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5364480057347247</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5364462138437079</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.536448269064949</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5364499987270681</v>
+        <v>0.5364729801568392</v>
       </c>
     </row>
     <row r="37">
@@ -1050,16 +726,7 @@
         <v>0.5364720695518551</v>
       </c>
       <c r="B37" t="n">
-        <v>0.536475957990621</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5364526017757723</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5364424701091486</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5364370924394657</v>
+        <v>0.5364666804252074</v>
       </c>
     </row>
     <row r="38">
@@ -1067,16 +734,7 @@
         <v>0.5363761300073243</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5363397668843762</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5363553161548239</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5363629946467846</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5363672374601278</v>
+        <v>0.5363804712284965</v>
       </c>
     </row>
     <row r="39">
@@ -1084,16 +742,7 @@
         <v>0.5363789911329949</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5363637880592349</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5363524913845749</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5363480883567956</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5363457824329578</v>
+        <v>0.5363815617129978</v>
       </c>
     </row>
     <row r="40">
@@ -1101,16 +750,7 @@
         <v>0.536487853358206</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5364702919074051</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.536458279530022</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5364520851368993</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5364485764601707</v>
+        <v>0.5364775309206601</v>
       </c>
     </row>
     <row r="41">
@@ -1118,16 +758,7 @@
         <v>0.5363239304479273</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5363250515670509</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5363222668960046</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5363216303803643</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5363214360260837</v>
+        <v>0.536326729214843</v>
       </c>
     </row>
     <row r="42">
@@ -1135,16 +766,7 @@
         <v>0.5363497471998691</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5363556744010378</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5363566405049943</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5363585504835866</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5363598640992794</v>
+        <v>0.5363858880088167</v>
       </c>
     </row>
     <row r="43">
@@ -1152,16 +774,7 @@
         <v>0.5364027077075049</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5363895169744231</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5363887041738888</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.536388387130193</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5363882353427453</v>
+        <v>0.5364088929541257</v>
       </c>
     </row>
     <row r="44">
@@ -1169,16 +782,7 @@
         <v>0.5363953149434582</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5364079130582956</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5363987365789801</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5363958037262889</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5363944736464015</v>
+        <v>0.5364350421753851</v>
       </c>
     </row>
     <row r="45">
@@ -1186,16 +790,7 @@
         <v>0.5364735812551599</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5364452778092963</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5364239203474362</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5364175875013683</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5364146907781149</v>
+        <v>0.5364719477111377</v>
       </c>
     </row>
     <row r="46">
@@ -1203,16 +798,7 @@
         <v>0.5351720986147548</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5351974877989129</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5351864890306635</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5351791169175315</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5351736630434979</v>
+        <v>0.5352538897047953</v>
       </c>
     </row>
     <row r="47">
@@ -1220,16 +806,7 @@
         <v>0.5353490838451942</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5353594359298907</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5353550073938481</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.535351457583056</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5353483218562887</v>
+        <v>0.5354243263459795</v>
       </c>
     </row>
     <row r="48">
@@ -1237,16 +814,7 @@
         <v>0.5354364683996434</v>
       </c>
       <c r="B48" t="n">
-        <v>0.535441565983412</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5354395076906791</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5354370878589619</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5354343977816671</v>
+        <v>0.5355101898494161</v>
       </c>
     </row>
     <row r="49">
@@ -1254,16 +822,7 @@
         <v>0.535569776904967</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5355889438181424</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5355841105533544</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5355805623274954</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5355774608528299</v>
+        <v>0.5356402565324215</v>
       </c>
     </row>
     <row r="50">
@@ -1271,16 +830,7 @@
         <v>0.5358880410861308</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5359184848683415</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.535918366999904</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5359174703399928</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5359164437263324</v>
+        <v>0.5359663446499534</v>
       </c>
     </row>
     <row r="51">
@@ -1288,16 +838,7 @@
         <v>0.5354677406353002</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5354788190144381</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5354666950336368</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5354609157073359</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.535456792423309</v>
+        <v>0.5355168222246628</v>
       </c>
     </row>
     <row r="52">
@@ -1305,16 +846,7 @@
         <v>0.5354677406353002</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5354788190144381</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5354666950336368</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5354609157073359</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.535456792423309</v>
+        <v>0.5355168222246628</v>
       </c>
     </row>
     <row r="53">
@@ -1322,16 +854,7 @@
         <v>0.5352788405412736</v>
       </c>
       <c r="B53" t="n">
-        <v>0.535273132642307</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5352732004271004</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.535272708564878</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5352711022206311</v>
+        <v>0.5353609936704165</v>
       </c>
     </row>
     <row r="54">
@@ -1339,16 +862,7 @@
         <v>0.535850335181401</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5358695538735001</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5358645320499168</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5358615203090591</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5358591305151209</v>
+        <v>0.535912418115147</v>
       </c>
     </row>
     <row r="55">
@@ -1356,16 +870,7 @@
         <v>0.5353474178374409</v>
       </c>
       <c r="B55" t="n">
-        <v>0.535334493875079</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5353390872110766</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5353378128294772</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5353354874655419</v>
+        <v>0.5354112011108776</v>
       </c>
     </row>
     <row r="56">
@@ -1373,16 +878,7 @@
         <v>0.5353928040692361</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5354349210234824</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5354229194158272</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5354142242309339</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.5354083325098626</v>
+        <v>0.5354733270582461</v>
       </c>
     </row>
     <row r="57">
@@ -1390,16 +886,7 @@
         <v>0.5353528668541013</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5353735641353167</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5353679323785426</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5353626646379583</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5353586105564075</v>
+        <v>0.5354488619755766</v>
       </c>
     </row>
     <row r="58">
@@ -1407,16 +894,7 @@
         <v>0.5352646316882901</v>
       </c>
       <c r="B58" t="n">
-        <v>0.535304057649346</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5352919144241439</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5352849322394118</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5352803024975038</v>
+        <v>0.5353496350616316</v>
       </c>
     </row>
     <row r="59">
@@ -1424,16 +902,7 @@
         <v>0.5354748512810926</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5355040143867947</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5354894803441916</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5354822795584808</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5354774779519422</v>
+        <v>0.5355423403130209</v>
       </c>
     </row>
     <row r="60">
@@ -1441,16 +910,7 @@
         <v>0.5357080395206305</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5357160846236702</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5357064416581736</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5357014041973772</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5356980225870515</v>
+        <v>0.5357396243388852</v>
       </c>
     </row>
     <row r="61">
@@ -1458,16 +918,7 @@
         <v>0.5362000519150247</v>
       </c>
       <c r="B61" t="n">
-        <v>0.536201735944994</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5361985911166531</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5361968400132652</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.5361956617117447</v>
+        <v>0.5362370128861229</v>
       </c>
     </row>
     <row r="62">
@@ -1475,16 +926,7 @@
         <v>0.5352343004483041</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5351559188564727</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5351867795587544</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.53519372264667</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.535195156367736</v>
+        <v>0.5353021930169284</v>
       </c>
     </row>
     <row r="63">
@@ -1492,16 +934,7 @@
         <v>0.5357183144210526</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5357127454594411</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.53567762492215</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5356607857900081</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5356506673452498</v>
+        <v>0.5356801501906887</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +942,7 @@
         <v>0.5354788939064178</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5354233106991972</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5354341729606099</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5354390168938008</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5354403763635074</v>
+        <v>0.5355097950753008</v>
       </c>
     </row>
     <row r="65">
@@ -1526,16 +950,7 @@
         <v>0.5359164324777103</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5359668941160866</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5359501809241626</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5359419165851133</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5359369325492898</v>
+        <v>0.5359728795842862</v>
       </c>
     </row>
     <row r="66">
@@ -1543,16 +958,7 @@
         <v>0.535505026562575</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5354663514073336</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5354741427289016</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5354716437998631</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.5354685379252564</v>
+        <v>0.5355471648073803</v>
       </c>
     </row>
     <row r="67">
@@ -1560,16 +966,7 @@
         <v>0.5353982557274827</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5354874888343585</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5354765018289841</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5354671462822242</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.535461078915804</v>
+        <v>0.5355435851880608</v>
       </c>
     </row>
     <row r="68">
@@ -1577,16 +974,7 @@
         <v>-0.9506107492499937</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9634920326476233</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.9706428832501781</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.976558468856344</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.9813374047946559</v>
+        <v>-0.9483552952121609</v>
       </c>
     </row>
     <row r="69">
@@ -1594,16 +982,7 @@
         <v>-0.9667248212573756</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9833335498394207</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.98910110403528</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.9945034385633639</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.999043549446481</v>
+        <v>-0.9635629404794632</v>
       </c>
     </row>
     <row r="70">
@@ -1611,16 +990,7 @@
         <v>-0.9540264311869928</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.962772611107808</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.9714713588091399</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.978163618843832</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.9833788543547399</v>
+        <v>-0.9504951827057623</v>
       </c>
     </row>
     <row r="71">
@@ -1628,16 +998,7 @@
         <v>-0.9720907193484966</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9791853550210856</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.985046347774689</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.9904798264477988</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.9949807863292256</v>
+        <v>-0.9602262639357457</v>
       </c>
     </row>
     <row r="72">
@@ -1645,16 +1006,7 @@
         <v>-0.9809541949632007</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9941614782731155</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.9996140217056522</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-1.004658464953933</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-1.008965514067243</v>
+        <v>-0.9772871405922753</v>
       </c>
     </row>
     <row r="73">
@@ -1662,16 +1014,7 @@
         <v>-0.9337150778464134</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.943404357431357</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.9526139788677666</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.9594611589840537</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.9647297078236482</v>
+        <v>-0.9337553693089342</v>
       </c>
     </row>
     <row r="74">
@@ -1679,16 +1022,7 @@
         <v>-0.925895881864481</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9325940813135671</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.9420211916896761</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.9491109691237994</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.954539073147495</v>
+        <v>-0.9246251684338241</v>
       </c>
     </row>
     <row r="75">
@@ -1696,16 +1030,7 @@
         <v>-0.9346464946428313</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9527667418697229</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.9599951407864362</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.9662020659410668</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.9711352882921097</v>
+        <v>-0.9386370525286079</v>
       </c>
     </row>
     <row r="76">
@@ -1713,16 +1038,7 @@
         <v>-0.9511017201259245</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9680853513783533</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.9736047112171384</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.9791659444044838</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.9838156768528673</v>
+        <v>-0.9472452334357491</v>
       </c>
     </row>
     <row r="77">
@@ -1730,16 +1046,7 @@
         <v>-0.9626498524063438</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.9742753000104144</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.9829929321419866</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.9899174314828613</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.995289999696364</v>
+        <v>-0.9632135874282215</v>
       </c>
     </row>
     <row r="78">
@@ -1747,16 +1054,7 @@
         <v>-0.9777053415702223</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9772008944271738</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.9849245577089892</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.991619412059944</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.9969021520782551</v>
+        <v>-0.970587352803561</v>
       </c>
     </row>
     <row r="79">
@@ -1764,16 +1062,7 @@
         <v>-0.9845615543831612</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9909038865700027</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-0.9981896425663291</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-1.004368579407921</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-1.00936479557177</v>
+        <v>-0.9771072600240374</v>
       </c>
     </row>
     <row r="80">
@@ -1781,16 +1070,7 @@
         <v>-0.9673508129001764</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9768027059753565</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-0.9843951683155154</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.9909356398799292</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.9961554145087814</v>
+        <v>-0.9646000117087907</v>
       </c>
     </row>
     <row r="81">
@@ -1798,16 +1078,7 @@
         <v>-0.9692754096684266</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9805377742506431</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.984555800940168</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.9894973272481771</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.9938298343505273</v>
+        <v>-0.9605414703152237</v>
       </c>
     </row>
     <row r="82">
@@ -1815,16 +1086,7 @@
         <v>-0.9777863789190996</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9797004470954188</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.9887855968671891</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.9955020898934402</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-1.000713212674462</v>
+        <v>-0.9776876633537156</v>
       </c>
     </row>
     <row r="83">
@@ -1832,16 +1094,7 @@
         <v>-0.9801984294485412</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.983431063362988</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-0.9899048914843243</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.9958252835585212</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-1.00068120916254</v>
+        <v>-0.9702483181618782</v>
       </c>
     </row>
     <row r="84">
@@ -1849,16 +1102,7 @@
         <v>-0.9669345079089565</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9785481106155695</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.9867296107615066</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.9936235425541049</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.9990399285440716</v>
+        <v>-0.9660887641816915</v>
       </c>
     </row>
     <row r="85">
@@ -1866,16 +1110,7 @@
         <v>-0.9737658159761616</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9780897502318746</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.986716468471707</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.9935328712671536</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.99884510382994</v>
+        <v>-0.967814560231735</v>
       </c>
     </row>
     <row r="86">
@@ -1883,16 +1118,7 @@
         <v>-0.9960563169368375</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.001602688395799</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-1.006837400420697</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-1.012359249427111</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.01702819368785</v>
+        <v>-0.9871085808280441</v>
       </c>
     </row>
     <row r="87">
@@ -1900,16 +1126,7 @@
         <v>-0.9651704863020256</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9727275206830269</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.9801071538752876</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.9866424489391014</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.9918353946687065</v>
+        <v>-0.963388881015663</v>
       </c>
     </row>
     <row r="88">
@@ -1917,16 +1134,7 @@
         <v>-1.015661814735439</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.9992641309996457</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-0.9701956053354193</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-1.008576972083126</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.046060497277365</v>
+        <v>-0.9920107026667437</v>
       </c>
     </row>
     <row r="89">
@@ -1934,16 +1142,7 @@
         <v>-3.027968789197579</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.696541692120884</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-3.58473481043104</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.515329050584372</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.479691298405835</v>
+        <v>-3.145196317859727</v>
       </c>
     </row>
     <row r="90">
@@ -1951,16 +1150,7 @@
         <v>-1.0933383926753</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.034690442971829</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.055523588844814</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-1.066082810769937</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.074797029355606</v>
+        <v>-1.061414737893014</v>
       </c>
     </row>
     <row r="91">
@@ -1968,16 +1158,7 @@
         <v>-5.850084952735222</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.494903200226906</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-4.804915063301602</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-4.965205725133963</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-5.057705561380195</v>
+        <v>-5.598810503415188</v>
       </c>
     </row>
     <row r="92">
@@ -1985,16 +1166,7 @@
         <v>-0.404513376663145</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.6766953868958838</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.6965154733663796</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.7113072637515271</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.7251007927171937</v>
+        <v>-0.5574400416797437</v>
       </c>
     </row>
     <row r="93">
@@ -2002,16 +1174,7 @@
         <v>-0.8089261547002313</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.217376937413661</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.018086890511331</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-1.004654593896458</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.016527053712237</v>
+        <v>-0.74852386435831</v>
       </c>
     </row>
     <row r="94">
@@ -2019,16 +1182,7 @@
         <v>-1.151237409223644</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.2147825330742</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-1.221358945340897</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-1.230629113343629</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.23914944307676</v>
+        <v>-1.189409976838937</v>
       </c>
     </row>
     <row r="95">
@@ -2036,16 +1190,7 @@
         <v>-0.041411585722258</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.5708734611528283</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.7712823215327311</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.8716885319991744</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.9299080990733414</v>
+        <v>-0.2925508130536303</v>
       </c>
     </row>
     <row r="96">
@@ -2053,16 +1198,7 @@
         <v>-1.548003242970608</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.441726759668161</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-1.511454827099915</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1.523934310792531</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.531651359197451</v>
+        <v>-1.467196363010218</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_variables_matrix_7.xlsx
+++ b/PCAcombined_predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.5358309800874753</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.535892410809513</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5359679516222717</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.5361183016071827</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.5361782201430477</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362519245083985</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>0.536127968852636</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5361866552138485</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5362589987029344</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.5359361810683799</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.5359976897386894</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5360722297462504</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>0.5360849866978173</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.5361442811380048</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5362172244890688</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.5357690084678649</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.5358238456220005</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5358938563352483</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.5359378973443195</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5359868190205443</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5360522960719672</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.5358196287614618</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.5358713774246223</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359389081649031</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>0.53625299168325</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.5363006386852373</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5363660338133256</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>0.5358792435606261</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5359367118949586</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5360081412317177</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.5359199471971503</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.5359811968067301</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.53605560326637</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +608,12 @@
       <c r="B13" t="n">
         <v>0.5359818413379307</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.5360331873231783</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5361003973846998</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +622,12 @@
       <c r="B14" t="n">
         <v>0.5359992322208705</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.5360573856835876</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5361297091591687</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +636,12 @@
       <c r="B15" t="n">
         <v>0.5359175224910887</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.5359738559126026</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5360455487293332</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +650,12 @@
       <c r="B16" t="n">
         <v>0.536175748443963</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.5362271238045322</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5362951729252223</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +664,12 @@
       <c r="B17" t="n">
         <v>0.5361931554051309</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5362573004482477</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.536336133124536</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +678,12 @@
       <c r="B18" t="n">
         <v>0.5358747896476953</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5359334374348643</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5360076187605707</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +692,12 @@
       <c r="B19" t="n">
         <v>0.536158581702912</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.5362191931523687</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.536293445424186</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +706,12 @@
       <c r="B20" t="n">
         <v>0.5361051462802822</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.5361588995510363</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5362287409702203</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +720,12 @@
       <c r="B21" t="n">
         <v>0.5362801636567606</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5363340753133424</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.536403362611062</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +734,12 @@
       <c r="B22" t="n">
         <v>0.5361157707008984</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.5361738040374383</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5362468891634666</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +748,12 @@
       <c r="B23" t="n">
         <v>0.5358567821357441</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.5359181578533204</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5359928776502293</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +762,12 @@
       <c r="B24" t="n">
         <v>0.5363654901367106</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.5364992316517666</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5366362329354492</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +776,12 @@
       <c r="B25" t="n">
         <v>0.5361869477188127</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.5362310378765547</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5362956326428385</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +790,12 @@
       <c r="B26" t="n">
         <v>0.5359929578308356</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.5360658920799569</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5361495711587837</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +804,12 @@
       <c r="B27" t="n">
         <v>0.5359793618272163</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5360316606844262</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5361027745831755</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +818,12 @@
       <c r="B28" t="n">
         <v>0.5364019140644952</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5364660762167558</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5365460879191621</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +832,12 @@
       <c r="B29" t="n">
         <v>0.5366806612551323</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.5367766293463356</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.536891059165062</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +846,12 @@
       <c r="B30" t="n">
         <v>0.5363326497098505</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.5363909986357185</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5364679866524954</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +860,12 @@
       <c r="B31" t="n">
         <v>0.5357328831444621</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.5357809268005349</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5358478571124222</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +874,12 @@
       <c r="B32" t="n">
         <v>0.5363316088017023</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5363785157555414</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5364446253999308</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +888,12 @@
       <c r="B33" t="n">
         <v>0.5364633671813059</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.5365098858305704</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5365756176302945</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +902,12 @@
       <c r="B34" t="n">
         <v>0.5355022354284822</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5355489612655515</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5356149038537645</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +916,12 @@
       <c r="B35" t="n">
         <v>0.5364747039673269</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5365305637010506</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5366021714024742</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +930,12 @@
       <c r="B36" t="n">
         <v>0.5364729801568392</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5365246057093849</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5365932007596853</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +944,12 @@
       <c r="B37" t="n">
         <v>0.5364666804252074</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5365149550818158</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5365808035398213</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +958,12 @@
       <c r="B38" t="n">
         <v>0.5363804712284965</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5364351125510305</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5365060639404122</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +972,12 @@
       <c r="B39" t="n">
         <v>0.5363815617129978</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5364305749641687</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5364968914204378</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +986,12 @@
       <c r="B40" t="n">
         <v>0.5364775309206601</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.5365271078634732</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5365935503226739</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +1000,12 @@
       <c r="B41" t="n">
         <v>0.536326729214843</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5363838461404637</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5364560204568303</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +1014,12 @@
       <c r="B42" t="n">
         <v>0.5363858880088167</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.5364383240775804</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5365078913310406</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +1028,12 @@
       <c r="B43" t="n">
         <v>0.5364088929541257</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.5364609728969164</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5365300462201085</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +1042,12 @@
       <c r="B44" t="n">
         <v>0.5364350421753851</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.5364848772512738</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5365519300908214</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +1056,12 @@
       <c r="B45" t="n">
         <v>0.5364719477111377</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.5365154416116339</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5365779611607732</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +1070,12 @@
       <c r="B46" t="n">
         <v>0.5352538897047953</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5353037411622839</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5353700460566349</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +1084,12 @@
       <c r="B47" t="n">
         <v>0.5354243263459795</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.5354733475576398</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5355393165959988</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +1098,12 @@
       <c r="B48" t="n">
         <v>0.5355101898494161</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.5355604681067416</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5356271242140841</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +1112,12 @@
       <c r="B49" t="n">
         <v>0.5356402565324215</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.5356918048302008</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5357594605251684</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +1126,12 @@
       <c r="B50" t="n">
         <v>0.5359663446499534</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.5360196673905369</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5360888354595588</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +1140,12 @@
       <c r="B51" t="n">
         <v>0.5355168222246628</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.535567338773828</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5356342597930117</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1154,12 @@
       <c r="B52" t="n">
         <v>0.5355168222246628</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.535567338773828</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5356342597930117</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1168,12 @@
       <c r="B53" t="n">
         <v>0.5353609936704165</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.5354096279144502</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5354753592578233</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1182,12 @@
       <c r="B54" t="n">
         <v>0.535912418115147</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.5359638861943656</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5360317000505369</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1196,12 @@
       <c r="B55" t="n">
         <v>0.5354112011108776</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.5354612271295858</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5355276051950667</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1210,12 @@
       <c r="B56" t="n">
         <v>0.5354733270582461</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.5355237876917508</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.53559047007654</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1224,12 @@
       <c r="B57" t="n">
         <v>0.5354488619755766</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.5354956834309533</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5355601660546377</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1238,12 @@
       <c r="B58" t="n">
         <v>0.5353496350616316</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.5353993073103702</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5354652414380158</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1252,12 @@
       <c r="B59" t="n">
         <v>0.5355423403130209</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.5355930661109869</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5356597721796766</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1266,12 @@
       <c r="B60" t="n">
         <v>0.5357396243388852</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.5357921442711203</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5358603145949546</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1280,12 @@
       <c r="B61" t="n">
         <v>0.5362370128861229</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.5362878883329942</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5363554789329976</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1294,12 @@
       <c r="B62" t="n">
         <v>0.5353021930169284</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.5353469824374455</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5354093819806496</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1308,12 @@
       <c r="B63" t="n">
         <v>0.5356801501906887</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.5357306296997166</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5357969113963161</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1322,12 @@
       <c r="B64" t="n">
         <v>0.5355097950753008</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.5355595620325844</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5356258661983718</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1336,12 @@
       <c r="B65" t="n">
         <v>0.5359728795842862</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.5360261866488185</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5360951465005395</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1350,12 @@
       <c r="B66" t="n">
         <v>0.5355471648073803</v>
       </c>
+      <c r="C66" t="n">
+        <v>0.5355929727712789</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.535655901867925</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -968,6 +1364,12 @@
       <c r="B67" t="n">
         <v>0.5355435851880608</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.5355918038192742</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5356567949022615</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -976,6 +1378,12 @@
       <c r="B68" t="n">
         <v>-0.9483552952121609</v>
       </c>
+      <c r="C68" t="n">
+        <v>-0.949996272409931</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.9526354347093935</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -984,6 +1392,12 @@
       <c r="B69" t="n">
         <v>-0.9635629404794632</v>
       </c>
+      <c r="C69" t="n">
+        <v>-0.9655639437200132</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9684562053537296</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -992,6 +1406,12 @@
       <c r="B70" t="n">
         <v>-0.9504951827057623</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.9522024286686452</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9549292794473787</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1000,6 +1420,12 @@
       <c r="B71" t="n">
         <v>-0.9602262639357457</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.9616878027077875</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.9641102679655016</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1008,6 +1434,12 @@
       <c r="B72" t="n">
         <v>-0.9772871405922753</v>
       </c>
+      <c r="C72" t="n">
+        <v>-0.9783915763453315</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9805924343731541</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1016,6 +1448,12 @@
       <c r="B73" t="n">
         <v>-0.9337553693089342</v>
       </c>
+      <c r="C73" t="n">
+        <v>-0.9353729498250005</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.9380036967502821</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1024,6 +1462,12 @@
       <c r="B74" t="n">
         <v>-0.9246251684338241</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.9259678703824868</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9284220331055312</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1032,6 +1476,12 @@
       <c r="B75" t="n">
         <v>-0.9386370525286079</v>
       </c>
+      <c r="C75" t="n">
+        <v>-0.9404953679936635</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.9432274626114269</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1040,6 +1490,12 @@
       <c r="B76" t="n">
         <v>-0.9472452334357491</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.9496704190844643</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9528571807033812</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1048,6 +1504,12 @@
       <c r="B77" t="n">
         <v>-0.9632135874282215</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.9649155725072268</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9676132625219619</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1056,6 +1518,12 @@
       <c r="B78" t="n">
         <v>-0.970587352803561</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.9707748073493382</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9723961065322106</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1064,6 +1532,12 @@
       <c r="B79" t="n">
         <v>-0.9771072600240374</v>
       </c>
+      <c r="C79" t="n">
+        <v>-0.9783178111974287</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.9806384028709353</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1072,6 +1546,12 @@
       <c r="B80" t="n">
         <v>-0.9646000117087907</v>
       </c>
+      <c r="C80" t="n">
+        <v>-0.965857100529619</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9682984359940465</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1080,6 +1560,12 @@
       <c r="B81" t="n">
         <v>-0.9605414703152237</v>
       </c>
+      <c r="C81" t="n">
+        <v>-0.9618005863812038</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.9641481151889313</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1088,6 +1574,12 @@
       <c r="B82" t="n">
         <v>-0.9776876633537156</v>
       </c>
+      <c r="C82" t="n">
+        <v>-0.9773396189823091</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9785619308546409</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1096,6 +1588,12 @@
       <c r="B83" t="n">
         <v>-0.9702483181618782</v>
       </c>
+      <c r="C83" t="n">
+        <v>-0.9711089902145682</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9731881491492358</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1104,6 +1602,12 @@
       <c r="B84" t="n">
         <v>-0.9660887641816915</v>
       </c>
+      <c r="C84" t="n">
+        <v>-0.9677597258217228</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.9704915408578098</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1112,6 +1616,12 @@
       <c r="B85" t="n">
         <v>-0.967814560231735</v>
       </c>
+      <c r="C85" t="n">
+        <v>-0.9690473481380574</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9714631611255171</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1120,6 +1630,12 @@
       <c r="B86" t="n">
         <v>-0.9871085808280441</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.9875448804383615</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9893408072458043</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1128,6 +1644,12 @@
       <c r="B87" t="n">
         <v>-0.963388881015663</v>
       </c>
+      <c r="C87" t="n">
+        <v>-0.9642016575063741</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9662860039244155</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1136,6 +1658,12 @@
       <c r="B88" t="n">
         <v>-0.9920107026667437</v>
       </c>
+      <c r="C88" t="n">
+        <v>-0.9997277862568567</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.010966306548971</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1144,6 +1672,12 @@
       <c r="B89" t="n">
         <v>-3.145196317859727</v>
       </c>
+      <c r="C89" t="n">
+        <v>-3.207598000053172</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.255019674985905</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1152,6 +1686,12 @@
       <c r="B90" t="n">
         <v>-1.061414737893014</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.057349250033424</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.05899696951454</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1160,6 +1700,12 @@
       <c r="B91" t="n">
         <v>-5.598810503415188</v>
       </c>
+      <c r="C91" t="n">
+        <v>-5.437943293741909</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.340327568390156</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1168,6 +1714,12 @@
       <c r="B92" t="n">
         <v>-0.5574400416797437</v>
       </c>
+      <c r="C92" t="n">
+        <v>-0.5996362109096238</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.6347707656875522</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1176,6 +1728,12 @@
       <c r="B93" t="n">
         <v>-0.74852386435831</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.7893596313845943</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.838570870895801</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1184,6 +1742,12 @@
       <c r="B94" t="n">
         <v>-1.189409976838937</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.193607414402193</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.199226818710289</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1192,6 +1756,12 @@
       <c r="B95" t="n">
         <v>-0.2925508130536303</v>
       </c>
+      <c r="C95" t="n">
+        <v>-0.4744944294589998</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6054366850564719</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1199,6 +1769,12 @@
       </c>
       <c r="B96" t="n">
         <v>-1.467196363010218</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.464784400500796</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.469023441153643</v>
       </c>
     </row>
   </sheetData>
